--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Angptl3-Itgav.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Angptl3-Itgav.xlsx
@@ -537,52 +537,52 @@
         <v>26</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.615597705580744</v>
+        <v>0.7135533333333334</v>
       </c>
       <c r="H2">
-        <v>0.615597705580744</v>
+        <v>2.14066</v>
       </c>
       <c r="I2">
-        <v>0.1483635900100715</v>
+        <v>0.1619590947855566</v>
       </c>
       <c r="J2">
-        <v>0.1483635900100715</v>
+        <v>0.1619590947855566</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N2">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O2">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P2">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q2">
-        <v>2.872996055254271</v>
+        <v>7.136354157517778</v>
       </c>
       <c r="R2">
-        <v>2.872996055254271</v>
+        <v>64.22718741766001</v>
       </c>
       <c r="S2">
-        <v>0.002596045039543005</v>
+        <v>0.005751773583002088</v>
       </c>
       <c r="T2">
-        <v>0.002596045039543005</v>
+        <v>0.005751773583002088</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.615597705580744</v>
+        <v>0.7135533333333334</v>
       </c>
       <c r="H3">
-        <v>0.615597705580744</v>
+        <v>2.14066</v>
       </c>
       <c r="I3">
-        <v>0.1483635900100715</v>
+        <v>0.1619590947855566</v>
       </c>
       <c r="J3">
-        <v>0.1483635900100715</v>
+        <v>0.1619590947855566</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N3">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O3">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P3">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q3">
-        <v>43.63602188047761</v>
+        <v>50.93421161440222</v>
       </c>
       <c r="R3">
-        <v>43.63602188047761</v>
+        <v>458.40790452962</v>
       </c>
       <c r="S3">
-        <v>0.03942959752451805</v>
+        <v>0.04105206193083012</v>
       </c>
       <c r="T3">
-        <v>0.03942959752451805</v>
+        <v>0.04105206193083012</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.615597705580744</v>
+        <v>0.7135533333333334</v>
       </c>
       <c r="H4">
-        <v>0.615597705580744</v>
+        <v>2.14066</v>
       </c>
       <c r="I4">
-        <v>0.1483635900100715</v>
+        <v>0.1619590947855566</v>
       </c>
       <c r="J4">
-        <v>0.1483635900100715</v>
+        <v>0.1619590947855566</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N4">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O4">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P4">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q4">
-        <v>38.82168899723308</v>
+        <v>49.80878126385333</v>
       </c>
       <c r="R4">
-        <v>38.82168899723308</v>
+        <v>448.27903137468</v>
       </c>
       <c r="S4">
-        <v>0.03507935660532208</v>
+        <v>0.04014498523355373</v>
       </c>
       <c r="T4">
-        <v>0.03507935660532208</v>
+        <v>0.04014498523355373</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.615597705580744</v>
+        <v>0.7135533333333334</v>
       </c>
       <c r="H5">
-        <v>0.615597705580744</v>
+        <v>2.14066</v>
       </c>
       <c r="I5">
-        <v>0.1483635900100715</v>
+        <v>0.1619590947855566</v>
       </c>
       <c r="J5">
-        <v>0.1483635900100715</v>
+        <v>0.1619590947855566</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N5">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O5">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P5">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q5">
-        <v>48.50058211882034</v>
+        <v>56.91574082965556</v>
       </c>
       <c r="R5">
-        <v>48.50058211882034</v>
+        <v>512.2416674669</v>
       </c>
       <c r="S5">
-        <v>0.04382522398324986</v>
+        <v>0.04587306730232028</v>
       </c>
       <c r="T5">
-        <v>0.04382522398324986</v>
+        <v>0.04587306730232028</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.615597705580744</v>
+        <v>0.7135533333333334</v>
       </c>
       <c r="H6">
-        <v>0.615597705580744</v>
+        <v>2.14066</v>
       </c>
       <c r="I6">
-        <v>0.1483635900100715</v>
+        <v>0.1619590947855566</v>
       </c>
       <c r="J6">
-        <v>0.1483635900100715</v>
+        <v>0.1619590947855566</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N6">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O6">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P6">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q6">
-        <v>18.55184222193375</v>
+        <v>21.62227458706445</v>
       </c>
       <c r="R6">
-        <v>18.55184222193375</v>
+        <v>194.60047128358</v>
       </c>
       <c r="S6">
-        <v>0.01676348211009747</v>
+        <v>0.01742716589300449</v>
       </c>
       <c r="T6">
-        <v>0.01676348211009747</v>
+        <v>0.01742716589300449</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.615597705580744</v>
+        <v>0.7135533333333334</v>
       </c>
       <c r="H7">
-        <v>0.615597705580744</v>
+        <v>2.14066</v>
       </c>
       <c r="I7">
-        <v>0.1483635900100715</v>
+        <v>0.1619590947855566</v>
       </c>
       <c r="J7">
-        <v>0.1483635900100715</v>
+        <v>0.1619590947855566</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N7">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O7">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P7">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q7">
-        <v>11.80816831842214</v>
+        <v>14.52890963936889</v>
       </c>
       <c r="R7">
-        <v>11.80816831842214</v>
+        <v>130.76018675432</v>
       </c>
       <c r="S7">
-        <v>0.01066988474734109</v>
+        <v>0.01171004084284591</v>
       </c>
       <c r="T7">
-        <v>0.01066988474734109</v>
+        <v>0.01171004084284591</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>26</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.701757343425402</v>
+        <v>0.7746843333333334</v>
       </c>
       <c r="H8">
-        <v>0.701757343425402</v>
+        <v>2.324053</v>
       </c>
       <c r="I8">
-        <v>0.1691286985683334</v>
+        <v>0.1758343315209595</v>
       </c>
       <c r="J8">
-        <v>0.1691286985683334</v>
+        <v>0.1758343315209595</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N8">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O8">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P8">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q8">
-        <v>3.275103303877489</v>
+        <v>7.747734478544778</v>
       </c>
       <c r="R8">
-        <v>3.275103303877489</v>
+        <v>69.72961030690301</v>
       </c>
       <c r="S8">
-        <v>0.002959389961734415</v>
+        <v>0.006244535167143195</v>
       </c>
       <c r="T8">
-        <v>0.002959389961734415</v>
+        <v>0.006244535167143196</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.701757343425402</v>
+        <v>0.7746843333333334</v>
       </c>
       <c r="H9">
-        <v>0.701757343425402</v>
+        <v>2.324053</v>
       </c>
       <c r="I9">
-        <v>0.1691286985683334</v>
+        <v>0.1758343315209595</v>
       </c>
       <c r="J9">
-        <v>0.1691286985683334</v>
+        <v>0.1758343315209595</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N9">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O9">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P9">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q9">
-        <v>49.74336082622095</v>
+        <v>55.29780876229123</v>
       </c>
       <c r="R9">
-        <v>49.74336082622095</v>
+        <v>497.6802788606211</v>
       </c>
       <c r="S9">
-        <v>0.04494820133391367</v>
+        <v>0.04456904304585106</v>
       </c>
       <c r="T9">
-        <v>0.04494820133391367</v>
+        <v>0.04456904304585107</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.701757343425402</v>
+        <v>0.7746843333333334</v>
       </c>
       <c r="H10">
-        <v>0.701757343425402</v>
+        <v>2.324053</v>
       </c>
       <c r="I10">
-        <v>0.1691286985683334</v>
+        <v>0.1758343315209595</v>
       </c>
       <c r="J10">
-        <v>0.1691286985683334</v>
+        <v>0.1758343315209595</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N10">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O10">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P10">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q10">
-        <v>44.25520935345998</v>
+        <v>54.07596139629934</v>
       </c>
       <c r="R10">
-        <v>44.25520935345998</v>
+        <v>486.683652566694</v>
       </c>
       <c r="S10">
-        <v>0.039989096575985</v>
+        <v>0.04358425596171098</v>
       </c>
       <c r="T10">
-        <v>0.039989096575985</v>
+        <v>0.04358425596171099</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.701757343425402</v>
+        <v>0.7746843333333334</v>
       </c>
       <c r="H11">
-        <v>0.701757343425402</v>
+        <v>2.324053</v>
       </c>
       <c r="I11">
-        <v>0.1691286985683334</v>
+        <v>0.1758343315209595</v>
       </c>
       <c r="J11">
-        <v>0.1691286985683334</v>
+        <v>0.1758343315209595</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N11">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O11">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P11">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q11">
-        <v>55.28876952226503</v>
+        <v>61.79178301196057</v>
       </c>
       <c r="R11">
-        <v>55.28876952226503</v>
+        <v>556.126047107645</v>
       </c>
       <c r="S11">
-        <v>0.04995904383447177</v>
+        <v>0.04980306993317919</v>
       </c>
       <c r="T11">
-        <v>0.04995904383447177</v>
+        <v>0.04980306993317919</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.701757343425402</v>
+        <v>0.7746843333333334</v>
       </c>
       <c r="H12">
-        <v>0.701757343425402</v>
+        <v>2.324053</v>
       </c>
       <c r="I12">
-        <v>0.1691286985683334</v>
+        <v>0.1758343315209595</v>
       </c>
       <c r="J12">
-        <v>0.1691286985683334</v>
+        <v>0.1758343315209595</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N12">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O12">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P12">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q12">
-        <v>21.14837562792675</v>
+        <v>23.47468169671545</v>
       </c>
       <c r="R12">
-        <v>21.14837562792675</v>
+        <v>211.272135270439</v>
       </c>
       <c r="S12">
-        <v>0.01910971494125925</v>
+        <v>0.01892017283227359</v>
       </c>
       <c r="T12">
-        <v>0.01910971494125925</v>
+        <v>0.01892017283227359</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.701757343425402</v>
+        <v>0.7746843333333334</v>
       </c>
       <c r="H13">
-        <v>0.701757343425402</v>
+        <v>2.324053</v>
       </c>
       <c r="I13">
-        <v>0.1691286985683334</v>
+        <v>0.1758343315209595</v>
       </c>
       <c r="J13">
-        <v>0.1691286985683334</v>
+        <v>0.1758343315209595</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N13">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O13">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P13">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q13">
-        <v>13.46085073861444</v>
+        <v>15.77361936697289</v>
       </c>
       <c r="R13">
-        <v>13.46085073861444</v>
+        <v>141.962574302756</v>
       </c>
       <c r="S13">
-        <v>0.01216325192096933</v>
+        <v>0.01271325458080151</v>
       </c>
       <c r="T13">
-        <v>0.01216325192096933</v>
+        <v>0.01271325458080151</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>26</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.62720944757707</v>
+        <v>1.694543</v>
       </c>
       <c r="H14">
-        <v>1.62720944757707</v>
+        <v>5.083629</v>
       </c>
       <c r="I14">
-        <v>0.3921694852859943</v>
+        <v>0.3846196738695563</v>
       </c>
       <c r="J14">
-        <v>0.3921694852859943</v>
+        <v>0.3846196738695563</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N14">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O14">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P14">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q14">
-        <v>7.594190624136786</v>
+        <v>16.94737928929767</v>
       </c>
       <c r="R14">
-        <v>7.594190624136786</v>
+        <v>152.526413603679</v>
       </c>
       <c r="S14">
-        <v>0.006862125989723805</v>
+        <v>0.01365928404696837</v>
       </c>
       <c r="T14">
-        <v>0.006862125989723805</v>
+        <v>0.01365928404696838</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>20</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.62720944757707</v>
+        <v>1.694543</v>
       </c>
       <c r="H15">
-        <v>1.62720944757707</v>
+        <v>5.083629</v>
       </c>
       <c r="I15">
-        <v>0.3921694852859943</v>
+        <v>0.3846196738695563</v>
       </c>
       <c r="J15">
-        <v>0.3921694852859943</v>
+        <v>0.3846196738695563</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N15">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O15">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P15">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q15">
-        <v>115.3430989344057</v>
+        <v>120.9583190488503</v>
       </c>
       <c r="R15">
-        <v>115.3430989344057</v>
+        <v>1088.624871439653</v>
       </c>
       <c r="S15">
-        <v>0.1042242572128004</v>
+        <v>0.09749023784317172</v>
       </c>
       <c r="T15">
-        <v>0.1042242572128004</v>
+        <v>0.09749023784317173</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>21</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.62720944757707</v>
+        <v>1.694543</v>
       </c>
       <c r="H16">
-        <v>1.62720944757707</v>
+        <v>5.083629</v>
       </c>
       <c r="I16">
-        <v>0.3921694852859943</v>
+        <v>0.3846196738695563</v>
       </c>
       <c r="J16">
-        <v>0.3921694852859943</v>
+        <v>0.3846196738695563</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N16">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O16">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P16">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q16">
-        <v>102.6173725706174</v>
+        <v>118.285652503238</v>
       </c>
       <c r="R16">
-        <v>102.6173725706174</v>
+        <v>1064.570872529142</v>
       </c>
       <c r="S16">
-        <v>0.09272526516201933</v>
+        <v>0.09533611649578423</v>
       </c>
       <c r="T16">
-        <v>0.09272526516201933</v>
+        <v>0.09533611649578425</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.62720944757707</v>
+        <v>1.694543</v>
       </c>
       <c r="H17">
-        <v>1.62720944757707</v>
+        <v>5.083629</v>
       </c>
       <c r="I17">
-        <v>0.3921694852859943</v>
+        <v>0.3846196738695563</v>
       </c>
       <c r="J17">
-        <v>0.3921694852859943</v>
+        <v>0.3846196738695563</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N17">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O17">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P17">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q17">
-        <v>128.2015912685699</v>
+        <v>135.1632256584984</v>
       </c>
       <c r="R17">
-        <v>128.2015912685699</v>
+        <v>1216.469030926485</v>
       </c>
       <c r="S17">
-        <v>0.1158432168626264</v>
+        <v>0.1089391380494927</v>
       </c>
       <c r="T17">
-        <v>0.1158432168626264</v>
+        <v>0.1089391380494928</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>27</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.62720944757707</v>
+        <v>1.694543</v>
       </c>
       <c r="H18">
-        <v>1.62720944757707</v>
+        <v>5.083629</v>
       </c>
       <c r="I18">
-        <v>0.3921694852859943</v>
+        <v>0.3846196738695563</v>
       </c>
       <c r="J18">
-        <v>0.3921694852859943</v>
+        <v>0.3846196738695563</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N18">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O18">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P18">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q18">
-        <v>49.03808552212065</v>
+        <v>51.34847296476967</v>
       </c>
       <c r="R18">
-        <v>49.03808552212065</v>
+        <v>462.136256682927</v>
       </c>
       <c r="S18">
-        <v>0.04431091314433427</v>
+        <v>0.04138594915656318</v>
       </c>
       <c r="T18">
-        <v>0.04431091314433427</v>
+        <v>0.04138594915656318</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>23</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.62720944757707</v>
+        <v>1.694543</v>
       </c>
       <c r="H19">
-        <v>1.62720944757707</v>
+        <v>5.083629</v>
       </c>
       <c r="I19">
-        <v>0.3921694852859943</v>
+        <v>0.3846196738695563</v>
       </c>
       <c r="J19">
-        <v>0.3921694852859943</v>
+        <v>0.3846196738695563</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N19">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O19">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P19">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q19">
-        <v>31.21253193786721</v>
+        <v>34.50318424274533</v>
       </c>
       <c r="R19">
-        <v>31.21253193786721</v>
+        <v>310.528658184708</v>
       </c>
       <c r="S19">
-        <v>0.02820370691449015</v>
+        <v>0.02780894827757602</v>
       </c>
       <c r="T19">
-        <v>0.02820370691449015</v>
+        <v>0.02780894827757602</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>26</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.20468604082259</v>
+        <v>1.222982</v>
       </c>
       <c r="H20">
-        <v>1.20468604082259</v>
+        <v>3.668946</v>
       </c>
       <c r="I20">
-        <v>0.2903382261356008</v>
+        <v>0.2775868998239275</v>
       </c>
       <c r="J20">
-        <v>0.2903382261356008</v>
+        <v>0.2775868998239276</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N20">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O20">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P20">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q20">
-        <v>5.622272811816421</v>
+        <v>12.23122683696067</v>
       </c>
       <c r="R20">
-        <v>5.622272811816421</v>
+        <v>110.081041532646</v>
       </c>
       <c r="S20">
-        <v>0.005080297070850572</v>
+        <v>0.009858149673587198</v>
       </c>
       <c r="T20">
-        <v>0.005080297070850572</v>
+        <v>0.009858149673587203</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>20</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.20468604082259</v>
+        <v>1.222982</v>
       </c>
       <c r="H21">
-        <v>1.20468604082259</v>
+        <v>3.668946</v>
       </c>
       <c r="I21">
-        <v>0.2903382261356008</v>
+        <v>0.2775868998239275</v>
       </c>
       <c r="J21">
-        <v>0.2903382261356008</v>
+        <v>0.2775868998239276</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N21">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O21">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P21">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q21">
-        <v>85.39295380714428</v>
+        <v>87.29778291079133</v>
       </c>
       <c r="R21">
-        <v>85.39295380714428</v>
+        <v>785.680046197122</v>
       </c>
       <c r="S21">
-        <v>0.07716124557064245</v>
+        <v>0.07036044883955014</v>
       </c>
       <c r="T21">
-        <v>0.07716124557064245</v>
+        <v>0.07036044883955017</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>21</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.20468604082259</v>
+        <v>1.222982</v>
       </c>
       <c r="H22">
-        <v>1.20468604082259</v>
+        <v>3.668946</v>
       </c>
       <c r="I22">
-        <v>0.2903382261356008</v>
+        <v>0.2775868998239275</v>
       </c>
       <c r="J22">
-        <v>0.2903382261356008</v>
+        <v>0.2775868998239276</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N22">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O22">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P22">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q22">
-        <v>75.9716067687461</v>
+        <v>85.368871648412</v>
       </c>
       <c r="R22">
-        <v>75.9716067687461</v>
+        <v>768.319844835708</v>
       </c>
       <c r="S22">
-        <v>0.06864809735377791</v>
+        <v>0.06880578092397016</v>
       </c>
       <c r="T22">
-        <v>0.06864809735377791</v>
+        <v>0.06880578092397019</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>22</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.20468604082259</v>
+        <v>1.222982</v>
       </c>
       <c r="H23">
-        <v>1.20468604082259</v>
+        <v>3.668946</v>
       </c>
       <c r="I23">
-        <v>0.2903382261356008</v>
+        <v>0.2775868998239275</v>
       </c>
       <c r="J23">
-        <v>0.2903382261356008</v>
+        <v>0.2775868998239276</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N23">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O23">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P23">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q23">
-        <v>94.91259262441964</v>
+        <v>97.54971814954334</v>
       </c>
       <c r="R23">
-        <v>94.91259262441964</v>
+        <v>877.94746334589</v>
       </c>
       <c r="S23">
-        <v>0.0857632104374691</v>
+        <v>0.07862332494958506</v>
       </c>
       <c r="T23">
-        <v>0.0857632104374691</v>
+        <v>0.07862332494958509</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>27</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.20468604082259</v>
+        <v>1.222982</v>
       </c>
       <c r="H24">
-        <v>1.20468604082259</v>
+        <v>3.668946</v>
       </c>
       <c r="I24">
-        <v>0.2903382261356008</v>
+        <v>0.2775868998239275</v>
       </c>
       <c r="J24">
-        <v>0.2903382261356008</v>
+        <v>0.2775868998239276</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N24">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O24">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P24">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q24">
-        <v>36.30478988745245</v>
+        <v>37.05911160908867</v>
       </c>
       <c r="R24">
-        <v>36.30478988745245</v>
+        <v>333.532004481798</v>
       </c>
       <c r="S24">
-        <v>0.03280508148509469</v>
+        <v>0.02986897993818507</v>
       </c>
       <c r="T24">
-        <v>0.03280508148509469</v>
+        <v>0.02986897993818508</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.20468604082259</v>
+        <v>1.222982</v>
       </c>
       <c r="H25">
-        <v>1.20468604082259</v>
+        <v>3.668946</v>
       </c>
       <c r="I25">
-        <v>0.2903382261356008</v>
+        <v>0.2775868998239275</v>
       </c>
       <c r="J25">
-        <v>0.2903382261356008</v>
+        <v>0.2775868998239276</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N25">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O25">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P25">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q25">
-        <v>23.10784366466565</v>
+        <v>24.90156536102133</v>
       </c>
       <c r="R25">
-        <v>23.10784366466565</v>
+        <v>224.114088249192</v>
       </c>
       <c r="S25">
-        <v>0.02088029421776608</v>
+        <v>0.02007021549904988</v>
       </c>
       <c r="T25">
-        <v>0.02088029421776608</v>
+        <v>0.02007021549904988</v>
       </c>
     </row>
   </sheetData>
